--- a/docs/LAPR3-2021-Self-Assessment.xlsx
+++ b/docs/LAPR3-2021-Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diasd\OneDrive\Documentos\lapr3-2021-g031\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B861724D-012E-41C7-B273-4CA68CEDBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE7874-98DE-4782-9E8F-2A814581D5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
+    <workbookView xWindow="-636" yWindow="3504" windowWidth="2388" windowHeight="564" activeTab="1" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1778,7 +1778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2076,37 +2076,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51149F-37F8-9041-812D-F0949B9CB00F}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,13 +2117,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="78" t="s">
@@ -2145,7 +2145,7 @@
       <c r="S8" s="79"/>
       <c r="T8" s="80"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="45">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="75" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="76"/>
       <c r="C11" s="8">
         <v>1171444</v>
@@ -2264,17 +2264,29 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="76"/>
       <c r="C12" s="8">
         <v>1190539</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="39">
+        <v>3</v>
+      </c>
+      <c r="G12" s="38">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2284,12 +2296,12 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="54" t="e">
+      <c r="S12" s="54">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="76"/>
       <c r="C13" s="8">
         <v>1190997</v>
@@ -2314,7 +2326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="76"/>
       <c r="C14" s="8">
         <v>1190818</v>
@@ -2339,7 +2351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="76"/>
       <c r="C15" s="8">
         <v>1191604</v>
@@ -2364,7 +2376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="76"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2389,7 +2401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="76"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2414,7 +2426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="76"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2439,7 +2451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="76"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2464,7 +2476,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="76"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2489,7 +2501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="76"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2514,7 +2526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="76"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2539,7 +2551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="76"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2564,7 +2576,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="77"/>
       <c r="C24" s="43" t="s">
         <v>15</v>
@@ -2589,34 +2601,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="49" t="e">
+      <c r="D25" s="49">
         <f>AVERAGE(D10:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="49" t="e">
+        <v>5</v>
+      </c>
+      <c r="E25" s="49">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="49" t="e">
+        <v>4</v>
+      </c>
+      <c r="F25" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="49" t="e">
+        <v>3</v>
+      </c>
+      <c r="G25" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="49" t="e">
+        <v>4</v>
+      </c>
+      <c r="H25" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="49" t="e">
+        <v>4</v>
+      </c>
+      <c r="I25" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="J25" s="49" t="e">
         <f t="shared" si="1"/>
@@ -2656,27 +2668,27 @@
       </c>
       <c r="S25" s="56"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2743,23 +2755,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E9D47-BAA1-5945-9716-C25FEE03B60C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="76"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -2815,7 +2829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -2839,11 +2853,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>1191604</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="13"/>
       <c r="E6" s="34" t="s">
@@ -2865,11 +2881,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>1191604</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="13"/>
       <c r="E7" s="15" t="s">
@@ -2891,11 +2909,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>1191604</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="13"/>
       <c r="E8" s="15" t="s">
@@ -2917,11 +2937,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>1190539</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="13"/>
       <c r="E9" s="15" t="s">
@@ -2943,7 +2965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
@@ -2969,11 +2991,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>1191604</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="13"/>
       <c r="E11" s="15" t="s">
@@ -2995,11 +3019,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>1190539</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="13"/>
       <c r="E12" s="15" t="s">
@@ -3021,11 +3047,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>1190539</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
@@ -3047,11 +3075,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>1190997</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="13"/>
       <c r="E14" s="15" t="s">
@@ -3073,11 +3103,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>1171444</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="13"/>
       <c r="E15" s="15" t="s">
@@ -3099,7 +3131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>54</v>
       </c>
@@ -3125,7 +3157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>55</v>
       </c>
@@ -3151,7 +3183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3175,7 +3207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3199,7 +3231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3223,7 +3255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3247,7 +3279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3271,7 +3303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3295,7 +3327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3319,7 +3351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3465,19 +3497,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="6" width="14.875" customWidth="1"/>
+    <col min="2" max="6" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>57</v>
       </c>
@@ -3497,7 +3529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>63</v>
       </c>
@@ -3516,7 +3548,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>64</v>
       </c>
@@ -3535,7 +3567,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>65</v>
       </c>
@@ -3554,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>66</v>
       </c>
@@ -3573,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
@@ -3588,7 +3620,7 @@
         <v>-429.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -3612,24 +3644,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
@@ -3648,8 +3680,8 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
@@ -3750,7 +3782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>72</v>
       </c>
@@ -3842,7 +3874,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
@@ -3889,7 +3921,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>81</v>
       </c>
@@ -3936,7 +3968,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>
@@ -3983,7 +4015,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
@@ -4030,7 +4062,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>68</v>
       </c>
@@ -4108,7 +4140,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>100</v>
       </c>
@@ -4183,7 +4215,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -4207,22 +4239,22 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>161</v>
       </c>
@@ -4241,7 +4273,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
@@ -4342,7 +4374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>102</v>
       </c>
@@ -4389,7 +4421,7 @@
       <c r="Y4" s="71"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>109</v>
       </c>
@@ -4436,7 +4468,7 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>116</v>
       </c>
@@ -4483,7 +4515,7 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>123</v>
       </c>
@@ -4530,7 +4562,7 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -4577,7 +4609,7 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>135</v>
       </c>
@@ -4620,7 +4652,7 @@
       <c r="Y9" s="71"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>140</v>
       </c>
@@ -4667,7 +4699,7 @@
       <c r="Y10" s="71"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>146</v>
       </c>
@@ -4714,7 +4746,7 @@
       <c r="Y11" s="71"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
@@ -4761,7 +4793,7 @@
       <c r="Y12" s="71"/>
       <c r="Z12" s="16"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
@@ -4808,7 +4840,7 @@
       <c r="Y13" s="71"/>
       <c r="Z13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>160</v>
       </c>
@@ -4855,7 +4887,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="16"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
@@ -4933,7 +4965,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>100</v>
       </c>
@@ -5008,7 +5040,7 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -5030,13 +5062,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -5220,12 +5258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5236,6 +5268,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA1CEFC-B112-44A5-8B0C-097F64092DA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5253,22 +5301,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>

--- a/docs/LAPR3-2021-Self-Assessment.xlsx
+++ b/docs/LAPR3-2021-Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diasd\OneDrive\Documentos\lapr3-2021-g031\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\lapr3-2021-g031\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE7874-98DE-4782-9E8F-2A814581D5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678EB51-11EC-4E0C-B3A8-B1F55BBB85A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-636" yWindow="3504" windowWidth="2388" windowHeight="564" activeTab="1" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1778,7 +1778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2076,37 +2076,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51149F-37F8-9041-812D-F0949B9CB00F}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.8984375" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,13 +2117,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="78" t="s">
@@ -2145,7 +2145,7 @@
       <c r="S8" s="79"/>
       <c r="T8" s="80"/>
     </row>
-    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="45">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G9" s="46">
         <f>C13</f>
-        <v>1190997</v>
+        <v>1190797</v>
       </c>
       <c r="H9" s="46">
         <f>C14</f>
@@ -2212,19 +2212,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="40">
         <v>1161605</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="D10" s="39">
+        <v>5</v>
+      </c>
+      <c r="E10" s="41">
+        <v>4</v>
+      </c>
+      <c r="F10" s="42">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42">
+        <v>4</v>
+      </c>
+      <c r="H10" s="42">
+        <v>3</v>
+      </c>
+      <c r="I10" s="42">
+        <v>3</v>
+      </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
@@ -2234,12 +2246,12 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="40"/>
-      <c r="S10" s="53" t="e">
+      <c r="S10" s="53">
         <f>AVERAGE(D10:R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="76"/>
       <c r="C11" s="8">
         <v>1171444</v>
@@ -2264,7 +2276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="76"/>
       <c r="C12" s="8">
         <v>1190539</v>
@@ -2301,10 +2313,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="76"/>
       <c r="C13" s="8">
-        <v>1190997</v>
+        <v>1190797</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2326,7 +2338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="76"/>
       <c r="C14" s="8">
         <v>1190818</v>
@@ -2351,7 +2363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="76"/>
       <c r="C15" s="8">
         <v>1191604</v>
@@ -2376,7 +2388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="76"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2401,7 +2413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2426,7 +2438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="76"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2451,7 +2463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="76"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2476,7 +2488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="76"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2501,7 +2513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="76"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2526,7 +2538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="76"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2551,7 +2563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="76"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2576,7 +2588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="77"/>
       <c r="C24" s="43" t="s">
         <v>15</v>
@@ -2601,7 +2613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="48" t="s">
         <v>5</v>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="F25" s="49">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G25" s="49">
         <f t="shared" si="1"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="H25" s="49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J25" s="49" t="e">
         <f t="shared" si="1"/>
@@ -2668,27 +2680,27 @@
       </c>
       <c r="S25" s="56"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2755,25 +2767,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E9D47-BAA1-5945-9716-C25FEE03B60C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -2829,7 +2841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -2853,14 +2865,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="8">
         <v>1191604</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="34" t="s">
         <v>37</v>
@@ -2881,14 +2895,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="8">
         <v>1191604</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="15" t="s">
         <v>37</v>
@@ -2909,14 +2925,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="8">
         <v>1191604</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="15" t="s">
         <v>37</v>
@@ -2937,14 +2955,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="8">
         <v>1190539</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="15" t="s">
         <v>37</v>
@@ -2965,7 +2985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
@@ -2991,14 +3011,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="8">
         <v>1191604</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="15" t="s">
         <v>37</v>
@@ -3019,14 +3041,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="8">
         <v>1190539</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="15" t="s">
         <v>37</v>
@@ -3047,7 +3071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
@@ -3075,7 +3099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -3103,7 +3127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
@@ -3131,7 +3155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>54</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>55</v>
       </c>
@@ -3183,7 +3207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3207,7 +3231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3231,7 +3255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3255,7 +3279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3279,7 +3303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3303,7 +3327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3327,7 +3351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3351,7 +3375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3495,21 +3519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B77AED-41D5-8047-A901-AF6E531ADCF8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="6" width="14.8984375" customWidth="1"/>
+    <col min="2" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>57</v>
       </c>
@@ -3529,14 +3555,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="11">
         <v>34</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="64">
+        <v>48.6</v>
+      </c>
       <c r="D4" s="22">
         <v>80</v>
       </c>
@@ -3545,17 +3573,19 @@
       </c>
       <c r="F4" s="12">
         <f>IF(((C4-D4)/(E4-D4)*100)&gt;100,100,(C4-D4)/(E4-D4)*100)</f>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-313.99999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="15">
         <v>21</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="31">
+        <v>47.9</v>
+      </c>
       <c r="D5" s="7">
         <v>75</v>
       </c>
@@ -3564,17 +3594,19 @@
       </c>
       <c r="F5" s="16">
         <f>IF(((C5-D5)/(E5-D5)*100)&gt;100,100,(C5-D5)/(E5-D5)*100)</f>
-        <v>-750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="15">
         <v>-13</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="30">
+        <v>2.4</v>
+      </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
@@ -3586,14 +3618,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="23">
         <v>-13</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="65">
+        <v>2</v>
+      </c>
       <c r="D7" s="24">
         <v>5</v>
       </c>
@@ -3605,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
@@ -3617,10 +3651,10 @@
       <c r="E8" s="57"/>
       <c r="F8" s="58">
         <f>SUMPRODUCT(B4:B7,F4:F7)/100</f>
-        <v>-429.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-163.66999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -3642,26 +3676,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20984BA6-2128-EB41-A750-F94245E6A6D5}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
@@ -3680,8 +3716,8 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
@@ -3702,7 +3738,7 @@
       </c>
       <c r="F3" s="21">
         <f>'Group and Self Assessment'!C13</f>
-        <v>1190997</v>
+        <v>1190797</v>
       </c>
       <c r="G3" s="21">
         <f>'Group and Self Assessment'!C14</f>
@@ -3782,7 +3818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>72</v>
       </c>
@@ -3874,16 +3910,20 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>5</v>
+      </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="E5" s="26">
+        <v>5</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -3896,9 +3936,9 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="28" t="e">
+      <c r="R5" s="28">
         <f t="shared" ref="R5:R8" si="0">AVERAGE(C5:Q5)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>75</v>
@@ -3921,16 +3961,20 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="18">
         <v>0.1</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>3</v>
+      </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -3943,9 +3987,9 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
-      <c r="R6" s="28" t="e">
+      <c r="R6" s="28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.5</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>82</v>
@@ -3968,16 +4012,20 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="18">
         <v>0.35</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>4</v>
+      </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="26">
+        <v>4</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -3990,9 +4038,9 @@
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
-      <c r="R7" s="28" t="e">
+      <c r="R7" s="28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>89</v>
@@ -4015,16 +4063,20 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="18">
         <v>0.125</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>5</v>
+      </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="26">
+        <v>4</v>
+      </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -4037,9 +4089,9 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="28" t="e">
+      <c r="R8" s="28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.5</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>95</v>
@@ -4062,7 +4114,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>68</v>
       </c>
@@ -4072,7 +4124,7 @@
       </c>
       <c r="C9" s="7">
         <f>SUMPRODUCT(C4:C8,$B$4:$B$8)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:Q9" si="1">SUMPRODUCT(D4:D8,$B$4:$B$8)</f>
@@ -4080,7 +4132,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
@@ -4140,14 +4192,14 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
         <f>C9/5*20</f>
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" ref="D10:Q10" si="2">D9/5*20</f>
@@ -4155,7 +4207,7 @@
       </c>
       <c r="E10" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="F10" s="24">
         <f t="shared" si="2"/>
@@ -4215,7 +4267,7 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -4235,26 +4287,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C190218-096C-D04F-B5E6-6BE0B32B2632}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>161</v>
       </c>
@@ -4273,7 +4325,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
@@ -4294,7 +4346,7 @@
       </c>
       <c r="F3" s="21">
         <f>'Group and Self Assessment'!C13</f>
-        <v>1190997</v>
+        <v>1190797</v>
       </c>
       <c r="G3" s="21">
         <f>'Group and Self Assessment'!C14</f>
@@ -4374,16 +4426,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="18">
         <v>0.1</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26">
+        <v>4</v>
+      </c>
       <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="E4" s="26">
+        <v>4</v>
+      </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -4396,9 +4452,9 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
-      <c r="R4" s="70" t="e">
+      <c r="R4" s="70">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S4" s="74" t="s">
         <v>103</v>
@@ -4421,16 +4477,20 @@
       <c r="Y4" s="71"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="18">
         <v>0.1</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>4</v>
+      </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="E5" s="26">
+        <v>4</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -4443,9 +4503,9 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="70" t="e">
+      <c r="R5" s="70">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S5" s="74" t="s">
         <v>110</v>
@@ -4468,16 +4528,20 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="18">
         <v>0.05</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>4</v>
+      </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -4490,9 +4554,9 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
-      <c r="R6" s="70" t="e">
+      <c r="R6" s="70">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S6" s="74" t="s">
         <v>117</v>
@@ -4515,16 +4579,20 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="18">
         <v>0.05</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>4</v>
+      </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="26">
+        <v>4</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -4537,9 +4605,9 @@
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
-      <c r="R7" s="70" t="e">
+      <c r="R7" s="70">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S7" s="74" t="s">
         <v>117</v>
@@ -4562,16 +4630,20 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="18">
         <v>0.1</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>4</v>
+      </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="26">
+        <v>4</v>
+      </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -4584,9 +4656,9 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="70" t="e">
+      <c r="R8" s="70">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S8" s="74" t="s">
         <v>117</v>
@@ -4609,16 +4681,20 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="18">
         <v>0.05</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26">
+        <v>4</v>
+      </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -4631,9 +4707,9 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
-      <c r="R9" s="70" t="e">
+      <c r="R9" s="70">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S9" s="74" t="s">
         <v>136</v>
@@ -4652,16 +4728,20 @@
       <c r="Y9" s="71"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="18">
         <v>0.1</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26">
+        <v>4</v>
+      </c>
       <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -4674,9 +4754,9 @@
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
-      <c r="R10" s="70" t="e">
+      <c r="R10" s="70">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S10" s="74" t="s">
         <v>136</v>
@@ -4699,16 +4779,20 @@
       <c r="Y10" s="71"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="18">
         <v>0.1</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="26">
+        <v>4</v>
+      </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -4721,9 +4805,9 @@
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
-      <c r="R11" s="70" t="e">
+      <c r="R11" s="70">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S11" s="74" t="s">
         <v>136</v>
@@ -4746,16 +4830,20 @@
       <c r="Y11" s="71"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="18">
         <v>0.1</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="26">
+        <v>4</v>
+      </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="26">
+        <v>4</v>
+      </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -4768,9 +4856,9 @@
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
-      <c r="R12" s="70" t="e">
+      <c r="R12" s="70">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S12" s="74" t="s">
         <v>136</v>
@@ -4793,16 +4881,20 @@
       <c r="Y12" s="71"/>
       <c r="Z12" s="16"/>
     </row>
-    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="18">
         <v>0.1</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="26">
+        <v>4</v>
+      </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="26">
+        <v>4</v>
+      </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -4815,9 +4907,9 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
-      <c r="R13" s="70" t="e">
+      <c r="R13" s="70">
         <f t="shared" ref="R13:R14" si="3">AVERAGE(C13:Q13)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S13" s="74" t="s">
         <v>154</v>
@@ -4840,16 +4932,20 @@
       <c r="Y13" s="71"/>
       <c r="Z13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="18">
         <v>0.15</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>4</v>
+      </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="26">
+        <v>4</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -4862,9 +4958,9 @@
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
-      <c r="R14" s="70" t="e">
+      <c r="R14" s="70">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S14" s="74" t="s">
         <v>136</v>
@@ -4887,7 +4983,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="16"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
@@ -4897,7 +4993,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" ref="C15:Q15" si="4">SUMPRODUCT(C8:C14,$B$8:$B$14)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="4"/>
@@ -4905,7 +5001,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
@@ -4965,14 +5061,14 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24">
         <f>C15/5*20</f>
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="D16" s="24">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
@@ -4980,7 +5076,7 @@
       </c>
       <c r="E16" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="5"/>
@@ -5040,7 +5136,7 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -5060,18 +5156,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51127868-43C4-0643-A881-5DEA4AEE417A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5259,26 +5358,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5302,9 +5390,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/LAPR3-2021-Self-Assessment.xlsx
+++ b/docs/LAPR3-2021-Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\lapr3-2021-g031\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weeb\Desktop\Isep\Lapr3 Reboot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678EB51-11EC-4E0C-B3A8-B1F55BBB85A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DACAEE2-914D-4A64-A634-7393ABE33688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="162">
   <si>
     <t>Fill the cells with a blue background</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>List A</t>
   </si>
   <si>
     <t>Student 7</t>
@@ -2076,37 +2073,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51149F-37F8-9041-812D-F0949B9CB00F}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,13 +2114,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="78" t="s">
@@ -2145,7 +2142,7 @@
       <c r="S8" s="79"/>
       <c r="T8" s="80"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="45">
@@ -2212,9 +2209,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75" t="s">
-        <v>6</v>
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="75">
+        <v>1191604</v>
       </c>
       <c r="C10" s="40">
         <v>1161605</v>
@@ -2251,7 +2248,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="76"/>
       <c r="C11" s="8">
         <v>1171444</v>
@@ -2276,7 +2273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="76"/>
       <c r="C12" s="8">
         <v>1190539</v>
@@ -2313,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="76"/>
       <c r="C13" s="8">
         <v>1190797</v>
@@ -2338,7 +2335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="76"/>
       <c r="C14" s="8">
         <v>1190818</v>
@@ -2363,17 +2360,29 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="76"/>
       <c r="C15" s="8">
         <v>1191604</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4</v>
+      </c>
+      <c r="I15" s="39">
+        <v>3</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -2383,15 +2392,15 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="54" t="e">
+      <c r="S15" s="54">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="76"/>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2413,10 +2422,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="76"/>
       <c r="C17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2438,10 +2447,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="76"/>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2463,10 +2472,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="76"/>
       <c r="C19" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2488,10 +2497,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="76"/>
       <c r="C20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2513,10 +2522,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="76"/>
       <c r="C21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2538,10 +2547,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="76"/>
       <c r="C22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2563,10 +2572,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="76"/>
       <c r="C23" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2588,10 +2597,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="77"/>
       <c r="C24" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
@@ -2613,7 +2622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="48" t="s">
         <v>5</v>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="E25" s="49">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F25" s="49">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="49">
         <f t="shared" si="1"/>
@@ -2636,11 +2645,11 @@
       </c>
       <c r="H25" s="49">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J25" s="49" t="e">
         <f t="shared" si="1"/>
@@ -2680,72 +2689,72 @@
       </c>
       <c r="S25" s="56"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2767,36 +2776,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E9D47-BAA1-5945-9716-C25FEE03B60C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="B3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
@@ -2817,57 +2826,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="76"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
       <c r="D4" s="82"/>
       <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
       <c r="D5" s="82"/>
       <c r="E5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="B6" s="8">
         <v>1191604</v>
@@ -2877,27 +2886,27 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="I6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>41</v>
-      </c>
       <c r="J6" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="B7" s="8">
         <v>1191604</v>
@@ -2907,27 +2916,27 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1191604</v>
@@ -2937,27 +2946,27 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8">
         <v>1190539</v>
@@ -2967,53 +2976,53 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J9" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="13"/>
       <c r="E10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J10" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8">
         <v>1191604</v>
@@ -3023,27 +3032,27 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J11" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8">
         <v>1190539</v>
@@ -3053,27 +3062,27 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8">
         <v>1190539</v>
@@ -3081,27 +3090,27 @@
       <c r="C13" s="8"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8">
         <v>1190997</v>
@@ -3109,27 +3118,27 @@
       <c r="C14" s="8"/>
       <c r="D14" s="13"/>
       <c r="E14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J14" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8">
         <v>1171444</v>
@@ -3137,266 +3146,266 @@
       <c r="C15" s="8"/>
       <c r="D15" s="13"/>
       <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J15" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="13"/>
       <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J17" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J18" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="16"/>
       <c r="E19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J19" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J20" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J21" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J22" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="16"/>
       <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J23" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J24" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="17"/>
       <c r="E25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="G25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="H25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="I25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="J25" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3523,41 +3532,41 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="6" width="14.875" customWidth="1"/>
+    <col min="2" max="6" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="D3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="E3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="58" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>63</v>
       </c>
       <c r="B4" s="11">
         <v>34</v>
@@ -3576,9 +3585,9 @@
         <v>-313.99999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="15">
         <v>21</v>
@@ -3597,9 +3606,9 @@
         <v>-271</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="15">
         <v>-13</v>
@@ -3618,9 +3627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="23">
         <v>-13</v>
@@ -3639,9 +3648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="57">
         <v>55</v>
@@ -3654,13 +3663,13 @@
         <v>-163.66999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
       <c r="E9" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="69">
         <f>IF((F8/B8)&lt;0,0,(F8/B8))</f>
@@ -3676,30 +3685,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20984BA6-2128-EB41-A750-F94245E6A6D5}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3716,13 +3725,13 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21">
         <f>'Group and Self Assessment'!C10</f>
@@ -3812,15 +3821,15 @@
         <v>5</v>
       </c>
       <c r="Y3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="B4" s="18">
         <v>0.35</v>
@@ -3890,29 +3899,29 @@
         <v>0</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="18">
         <v>7.4999999999999997E-2</v>
@@ -3926,7 +3935,9 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -3938,32 +3949,32 @@
       <c r="Q5" s="26"/>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R8" si="0">AVERAGE(C5:Q5)</f>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="18">
         <v>0.1</v>
@@ -3977,7 +3988,9 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="26">
+        <v>3</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -3989,32 +4002,32 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="28">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="18">
         <v>0.35</v>
@@ -4028,7 +4041,9 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="26">
+        <v>4</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -4043,29 +4058,29 @@
         <v>4</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="X7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="18">
         <v>0.125</v>
@@ -4079,7 +4094,9 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>4</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -4091,32 +4108,32 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="28">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="W8" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="X8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="19">
         <f>SUM(B4:B8)</f>
@@ -4144,7 +4161,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
@@ -4192,9 +4209,9 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
@@ -4219,7 +4236,7 @@
       </c>
       <c r="H10" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I10" s="24">
         <f t="shared" si="2"/>
@@ -4267,9 +4284,9 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4287,28 +4304,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C190218-096C-D04F-B5E6-6BE0B32B2632}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E4:E13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="14"/>
@@ -4325,12 +4342,12 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21">
         <f>'Group and Self Assessment'!C10</f>
@@ -4420,15 +4437,15 @@
         <v>5</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="18">
         <v>0.1</v>
@@ -4442,7 +4459,9 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="26">
+        <v>3</v>
+      </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -4454,32 +4473,32 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="70">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S4" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="U4" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="U4" s="74" t="s">
+      <c r="V4" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="W4" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="X4" s="74" t="s">
         <v>107</v>
-      </c>
-      <c r="X4" s="74" t="s">
-        <v>108</v>
       </c>
       <c r="Y4" s="71"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="18">
         <v>0.1</v>
@@ -4493,7 +4512,9 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -4505,32 +4526,32 @@
       <c r="Q5" s="26"/>
       <c r="R5" s="70">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S5" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="U5" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="74" t="s">
+      <c r="V5" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="V5" s="74" t="s">
+      <c r="W5" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="X5" s="74" t="s">
         <v>114</v>
-      </c>
-      <c r="X5" s="74" t="s">
-        <v>115</v>
       </c>
       <c r="Y5" s="71"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="18">
         <v>0.05</v>
@@ -4544,7 +4565,9 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="26">
+        <v>3</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -4556,32 +4579,32 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="70">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S6" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="T6" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="T6" s="74" t="s">
+      <c r="U6" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="U6" s="74" t="s">
+      <c r="V6" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="V6" s="74" t="s">
+      <c r="W6" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="W6" s="74" t="s">
+      <c r="X6" s="74" t="s">
         <v>121</v>
-      </c>
-      <c r="X6" s="74" t="s">
-        <v>122</v>
       </c>
       <c r="Y6" s="71"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="18">
         <v>0.05</v>
@@ -4595,7 +4618,9 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="26">
+        <v>3</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -4607,32 +4632,32 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="70">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S7" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T7" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="V7" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="V7" s="74" t="s">
+      <c r="W7" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="74" t="s">
+      <c r="X7" s="74" t="s">
         <v>127</v>
-      </c>
-      <c r="X7" s="74" t="s">
-        <v>128</v>
       </c>
       <c r="Y7" s="71"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="18">
         <v>0.1</v>
@@ -4646,7 +4671,9 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>3</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -4658,32 +4685,32 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="70">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T8" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="V8" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="W8" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="W8" s="74" t="s">
+      <c r="X8" s="74" t="s">
         <v>133</v>
-      </c>
-      <c r="X8" s="74" t="s">
-        <v>134</v>
       </c>
       <c r="Y8" s="71"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="18">
         <v>0.05</v>
@@ -4697,7 +4724,9 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="26">
+        <v>3</v>
+      </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -4709,28 +4738,28 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="70">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S9" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="T9" s="74" t="s">
         <v>136</v>
-      </c>
-      <c r="T9" s="74" t="s">
-        <v>137</v>
       </c>
       <c r="U9" s="74"/>
       <c r="V9" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W9" s="74"/>
       <c r="X9" s="74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="71"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="18">
         <v>0.1</v>
@@ -4744,7 +4773,9 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -4756,32 +4787,32 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="70">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S10" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T10" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="U10" s="74" t="s">
+      <c r="V10" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="V10" s="74" t="s">
+      <c r="W10" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="W10" s="74" t="s">
+      <c r="X10" s="74" t="s">
         <v>144</v>
-      </c>
-      <c r="X10" s="74" t="s">
-        <v>145</v>
       </c>
       <c r="Y10" s="71"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="18">
         <v>0.1</v>
@@ -4795,7 +4826,9 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26">
+        <v>3</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -4807,32 +4840,32 @@
       <c r="Q11" s="26"/>
       <c r="R11" s="70">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S11" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T11" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="U11" s="74" t="s">
+      <c r="V11" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="V11" s="74" t="s">
+      <c r="W11" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="W11" s="74" t="s">
+      <c r="X11" s="74" t="s">
         <v>150</v>
-      </c>
-      <c r="X11" s="74" t="s">
-        <v>151</v>
       </c>
       <c r="Y11" s="71"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="18">
         <v>0.1</v>
@@ -4846,7 +4879,9 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="H12" s="26">
+        <v>4</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -4861,29 +4896,29 @@
         <v>4</v>
       </c>
       <c r="S12" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T12" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="U12" s="74" t="s">
+      <c r="V12" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="V12" s="74" t="s">
+      <c r="W12" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="W12" s="74" t="s">
+      <c r="X12" s="74" t="s">
         <v>150</v>
-      </c>
-      <c r="X12" s="74" t="s">
-        <v>151</v>
       </c>
       <c r="Y12" s="71"/>
       <c r="Z12" s="16"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="18">
         <v>0.1</v>
@@ -4897,7 +4932,9 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26">
+        <v>3</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -4909,32 +4946,32 @@
       <c r="Q13" s="26"/>
       <c r="R13" s="70">
         <f t="shared" ref="R13:R14" si="3">AVERAGE(C13:Q13)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S13" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="T13" s="74" t="s">
+      <c r="U13" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="U13" s="74" t="s">
+      <c r="V13" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="V13" s="74" t="s">
+      <c r="W13" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="W13" s="74" t="s">
+      <c r="X13" s="74" t="s">
         <v>158</v>
-      </c>
-      <c r="X13" s="74" t="s">
-        <v>159</v>
       </c>
       <c r="Y13" s="71"/>
       <c r="Z13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="18">
         <v>0.15</v>
@@ -4948,7 +4985,9 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -4960,32 +4999,32 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="70">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T14" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="U14" s="74" t="s">
+      <c r="V14" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="V14" s="74" t="s">
+      <c r="W14" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="W14" s="74" t="s">
+      <c r="X14" s="74" t="s">
         <v>150</v>
-      </c>
-      <c r="X14" s="74" t="s">
-        <v>151</v>
       </c>
       <c r="Y14" s="71"/>
       <c r="Z14" s="16"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="19">
         <f>SUM(B4:B14)</f>
@@ -5013,7 +5052,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
@@ -5061,9 +5100,9 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24">
@@ -5088,7 +5127,7 @@
       </c>
       <c r="H16" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I16" s="24">
         <f t="shared" si="5"/>
@@ -5136,9 +5175,9 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5158,7 +5197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5174,6 +5213,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -5357,12 +5402,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
@@ -5372,6 +5411,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA1CEFC-B112-44A5-8B0C-097F64092DA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5387,20 +5442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>